--- a/DRE/IPT_ACRM_DRE_Indice_150423.xlsx
+++ b/DRE/IPT_ACRM_DRE_Indice_150423.xlsx
@@ -1447,8 +1447,8 @@
   </sheetPr>
   <dimension ref="A1:AI190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2362,7 +2362,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31"/>
       <c r="C21" s="32" t="s">
         <v>73</v>
@@ -2411,7 +2411,7 @@
       <c r="AG21" s="18"/>
       <c r="AI21" s="23"/>
     </row>
-    <row r="22" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
       <c r="C22" s="32" t="s">
         <v>216</v>
@@ -2460,7 +2460,7 @@
       <c r="AG22" s="18"/>
       <c r="AI22" s="23"/>
     </row>
-    <row r="23" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
       <c r="C23" s="32" t="s">
         <v>217</v>
@@ -2501,7 +2501,7 @@
       <c r="AG23" s="18"/>
       <c r="AI23" s="23"/>
     </row>
-    <row r="24" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
       <c r="C24" s="32" t="s">
         <v>206</v>
@@ -2544,7 +2544,7 @@
       <c r="AG24" s="18"/>
       <c r="AI24" s="23"/>
     </row>
-    <row r="25" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
       <c r="C25" s="32" t="s">
         <v>207</v>
@@ -2587,7 +2587,7 @@
       <c r="AG25" s="18"/>
       <c r="AI25" s="23"/>
     </row>
-    <row r="26" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
       <c r="C26" s="32" t="s">
         <v>219</v>
@@ -2630,7 +2630,7 @@
       <c r="AG26" s="18"/>
       <c r="AI26" s="23"/>
     </row>
-    <row r="27" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
       <c r="C27" s="32" t="s">
         <v>220</v>
@@ -2673,7 +2673,7 @@
       <c r="AG27" s="18"/>
       <c r="AI27" s="23"/>
     </row>
-    <row r="28" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="32" t="s">
         <v>221</v>
@@ -2716,7 +2716,7 @@
       <c r="AG28" s="18"/>
       <c r="AI28" s="23"/>
     </row>
-    <row r="29" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="32" t="s">
         <v>222</v>
@@ -2761,7 +2761,7 @@
       <c r="AG29" s="18"/>
       <c r="AI29" s="23"/>
     </row>
-    <row r="30" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
       <c r="C30" s="32" t="s">
         <v>218</v>
@@ -2806,7 +2806,7 @@
       <c r="AG30" s="18"/>
       <c r="AI30" s="23"/>
     </row>
-    <row r="31" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="31"/>
       <c r="C31" s="32" t="s">
         <v>223</v>
@@ -2849,7 +2849,7 @@
       <c r="AG31" s="18"/>
       <c r="AI31" s="23"/>
     </row>
-    <row r="32" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
       <c r="C32" s="32" t="s">
         <v>224</v>
@@ -2894,7 +2894,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
       <c r="C33" s="32" t="s">
         <v>208</v>
@@ -2939,7 +2939,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
       <c r="C34" s="32" t="s">
         <v>209</v>
@@ -2982,7 +2982,7 @@
       <c r="AG34" s="18"/>
       <c r="AI34" s="23"/>
     </row>
-    <row r="35" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
       <c r="C35" s="32" t="s">
         <v>197</v>
@@ -3035,7 +3035,7 @@
       <c r="AG35" s="18"/>
       <c r="AI35" s="23"/>
     </row>
-    <row r="36" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>6</v>
       </c>
